--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\EVALUACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>45736</t>
   </si>
@@ -156,17 +156,54 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>En el periodo que se informa (julio-septiembre) no se generaron estadísticas; por ende, las celdas se encuentran en blanco.</t>
+    <t>Estadística Secretaría de Educación Pública</t>
+  </si>
+  <si>
+    <t>Estadística 911</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Demanda educativa</t>
+  </si>
+  <si>
+    <t>http://sep.hidalgo.gob.mx/content/estadistica_basica/principal.html</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dwjIvSuBMuI9-rbY2a6xjlnvsRRSaEd_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ljE7ZkbPElS2R2PNFeTj4AsNEZry5kdW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ESrGgsorHr1SKVnAeclwwIxuTofcVTmB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XOktAIXSd1aEA-sd3hzudCUqbOc0e0ZR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-qUXTJTvpz8zFrtEVA3B-y8Wai7y3E8Y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RjDyCllzCis09fWEUznF94uTgs_ejFYD/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,13 +213,19 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -227,16 +270,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,19 +285,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,9 +592,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -546,18 +603,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.5703125" customWidth="1"/>
+    <col min="8" max="8" width="91.42578125" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="84.140625" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -566,38 +623,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -694,101 +751,160 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44112</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="N8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="M8" s="6">
+        <v>43840</v>
+      </c>
+      <c r="N8" s="6">
+        <v>43840</v>
+      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="E9" s="3">
+        <v>44112</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="6">
+        <v>43840</v>
+      </c>
+      <c r="N9" s="6">
+        <v>43840</v>
+      </c>
+      <c r="O9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -800,6 +916,16 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="K9" r:id="rId2"/>
+    <hyperlink ref="H9" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="J8" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\EVALUACIÓN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\FRACCIONES COMUNES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -297,14 +297,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -595,7 +595,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,33 +623,33 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
@@ -751,65 +751,65 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -854,10 +854,10 @@
         <v>44</v>
       </c>
       <c r="M8" s="6">
-        <v>43840</v>
+        <v>44206</v>
       </c>
       <c r="N8" s="6">
-        <v>43840</v>
+        <v>44206</v>
       </c>
       <c r="O8" s="4"/>
     </row>
@@ -899,10 +899,10 @@
         <v>44</v>
       </c>
       <c r="M9" s="6">
-        <v>43840</v>
+        <v>44206</v>
       </c>
       <c r="N9" s="6">
-        <v>43840</v>
+        <v>44206</v>
       </c>
       <c r="O9" s="4"/>
     </row>

--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\FRACCIONES COMUNES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>45736</t>
   </si>
@@ -156,54 +156,65 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
+    <t>Estadística enero-abril 2021</t>
+  </si>
+  <si>
+    <t>Estadística 912</t>
+  </si>
+  <si>
+    <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
+  </si>
+  <si>
     <t>Estadística Secretaría de Educación Pública</t>
   </si>
   <si>
-    <t>Estadística 911</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>Demanda educativa</t>
+    <t>MECASUP septiembre-diciembre 2020</t>
+  </si>
+  <si>
+    <t>.xls</t>
+  </si>
+  <si>
+    <t>.pdf</t>
   </si>
   <si>
     <t>http://sep.hidalgo.gob.mx/content/estadistica_basica/principal.html</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1dwjIvSuBMuI9-rbY2a6xjlnvsRRSaEd_/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ljE7ZkbPElS2R2PNFeTj4AsNEZry5kdW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ESrGgsorHr1SKVnAeclwwIxuTofcVTmB/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1XOktAIXSd1aEA-sd3hzudCUqbOc0e0ZR/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-qUXTJTvpz8zFrtEVA3B-y8Wai7y3E8Y/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RjDyCllzCis09fWEUznF94uTgs_ejFYD/view?usp=sharing</t>
+    <t>https://dgutyp.sep.gob.mx/index.php?pagina=MecasuTP</t>
+  </si>
+  <si>
+    <t>https://www.gob.mx/sep/acciones-y-programas/estadistica-educativa-15782</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e2ILARQQLJJGsxGoTpb3HoDbu6NmJ8wb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/118Ha5fVR4yoO7HrUDod-fnghttTOEAZS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N2JAM_Eb6lFpkOj04vFKaGWfvRtZejHW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pkavzg8hYOirgB4Tb2dx_xDLBYX3ZthX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/18TpfYN21YAMblS1zlLO8wZxAiNMLhihc?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_Ok6Nccja0dWzxPtrjd0Fap831vdnnl7/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RGkxJyoYlVvcBXdkP_7m9OeRGq2PYBKg/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,11 +224,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -272,11 +285,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -285,31 +298,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,18 +614,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.5703125" customWidth="1"/>
-    <col min="8" max="8" width="91.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.85546875" customWidth="1"/>
+    <col min="8" max="8" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="84.140625" customWidth="1"/>
+    <col min="10" max="10" width="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -623,38 +634,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -666,13 +677,13 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
@@ -713,13 +724,13 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
@@ -751,160 +762,205 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44238</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="3">
-        <v>44112</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="6">
-        <v>44206</v>
-      </c>
-      <c r="N8" s="6">
-        <v>44206</v>
-      </c>
-      <c r="O8" s="4"/>
+      <c r="M8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="N8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C9" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>44286</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="3">
-        <v>44112</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="5" t="s">
+        <v>44271</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>49</v>
+      <c r="J9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="6">
-        <v>44206</v>
-      </c>
-      <c r="N9" s="6">
-        <v>44206</v>
-      </c>
-      <c r="O9" s="4"/>
+      <c r="M9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="N9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44274</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="N10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="O10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -917,14 +973,17 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="K10" r:id="rId1"/>
     <hyperlink ref="K9" r:id="rId2"/>
-    <hyperlink ref="H9" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId3"/>
     <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="J9" r:id="rId5"/>
-    <hyperlink ref="H8" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="J8" r:id="rId8"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9:H10" r:id="rId8" display="https://drive.google.com/file/d/1pkavzg8hYOirgB4Tb2dx_xDLBYX3ZthX/view?usp=sharing"/>
+    <hyperlink ref="J8" r:id="rId9"/>
+    <hyperlink ref="J9" r:id="rId10"/>
+    <hyperlink ref="J10" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>45736</t>
   </si>
@@ -156,55 +156,40 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Estadística enero-abril 2021</t>
-  </si>
-  <si>
-    <t>Estadística 912</t>
-  </si>
-  <si>
     <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
   </si>
   <si>
-    <t>Estadística Secretaría de Educación Pública</t>
-  </si>
-  <si>
-    <t>MECASUP septiembre-diciembre 2020</t>
-  </si>
-  <si>
     <t>.xls</t>
   </si>
   <si>
-    <t>.pdf</t>
-  </si>
-  <si>
-    <t>http://sep.hidalgo.gob.mx/content/estadistica_basica/principal.html</t>
-  </si>
-  <si>
     <t>https://dgutyp.sep.gob.mx/index.php?pagina=MecasuTP</t>
   </si>
   <si>
     <t>https://www.gob.mx/sep/acciones-y-programas/estadistica-educativa-15782</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1e2ILARQQLJJGsxGoTpb3HoDbu6NmJ8wb/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/118Ha5fVR4yoO7HrUDod-fnghttTOEAZS/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1N2JAM_Eb6lFpkOj04vFKaGWfvRtZejHW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pkavzg8hYOirgB4Tb2dx_xDLBYX3ZthX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/18TpfYN21YAMblS1zlLO8wZxAiNMLhihc?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_Ok6Nccja0dWzxPtrjd0Fap831vdnnl7/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RGkxJyoYlVvcBXdkP_7m9OeRGq2PYBKg/view?usp=sharing</t>
+    <t>Estadística mayo-agosto 2021</t>
+  </si>
+  <si>
+    <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020</t>
+  </si>
+  <si>
+    <t>MECASUP enero-abril 2021</t>
+  </si>
+  <si>
+    <t>Modelo de Evaluación de la Calidad del Subsistema de Universidades Politécnicas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pZB3ygBzhzDbZ0hCfstBvWlm143XxGxL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rBLrSmJTpBTHbop6czdG-6XXAixP09dy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Ro4v1l-zVc15l8_3EhyqdouqNhrar0Zs?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AV1hkvyXxbsL_cT6Gi9RB6DQqGp6IXTA/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -287,26 +272,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,7 +297,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,13 +607,13 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.85546875" customWidth="1"/>
-    <col min="8" max="8" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.5703125" customWidth="1"/>
+    <col min="8" max="8" width="79" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="91.140625" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -634,38 +627,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -677,13 +670,13 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
@@ -724,13 +717,13 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
@@ -762,23 +755,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -827,140 +820,95 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="11">
         <v>44238</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>45</v>
+      <c r="F8" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="I8" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="J8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="11">
+        <v>44386</v>
+      </c>
+      <c r="N8" s="11">
+        <v>44386</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44377</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11">
+        <v>44372</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="H9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="3">
-        <v>44271</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3">
-        <v>44274</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="N10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="O10" s="2"/>
+      <c r="M9" s="11">
+        <v>44386</v>
+      </c>
+      <c r="N9" s="11">
+        <v>44386</v>
+      </c>
+      <c r="O9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -973,17 +921,14 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1"/>
-    <hyperlink ref="K9" r:id="rId2"/>
-    <hyperlink ref="K8" r:id="rId3"/>
-    <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9:H10" r:id="rId8" display="https://drive.google.com/file/d/1pkavzg8hYOirgB4Tb2dx_xDLBYX3ZthX/view?usp=sharing"/>
-    <hyperlink ref="J8" r:id="rId9"/>
-    <hyperlink ref="J9" r:id="rId10"/>
-    <hyperlink ref="J10" r:id="rId11"/>
+    <hyperlink ref="K9" r:id="rId1"/>
+    <hyperlink ref="K8" r:id="rId2"/>
+    <hyperlink ref="H9" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -156,40 +156,40 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
+    <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020</t>
+  </si>
+  <si>
+    <t>.xls</t>
+  </si>
+  <si>
+    <t>https://dgutyp.sep.gob.mx/index.php?pagina=MecasuTP</t>
+  </si>
+  <si>
     <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
   </si>
   <si>
-    <t>.xls</t>
-  </si>
-  <si>
-    <t>https://dgutyp.sep.gob.mx/index.php?pagina=MecasuTP</t>
+    <t>Modelo de Evaluación de la Calidad del Subsistema de Universidades Politécnicas</t>
+  </si>
+  <si>
+    <t>MECASUP mayo-agosto 2021</t>
+  </si>
+  <si>
+    <t>Estadística septiembre- diciembre 2021</t>
   </si>
   <si>
     <t>https://www.gob.mx/sep/acciones-y-programas/estadistica-educativa-15782</t>
   </si>
   <si>
-    <t>Estadística mayo-agosto 2021</t>
-  </si>
-  <si>
-    <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020</t>
-  </si>
-  <si>
-    <t>MECASUP enero-abril 2021</t>
-  </si>
-  <si>
-    <t>Modelo de Evaluación de la Calidad del Subsistema de Universidades Politécnicas</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pZB3ygBzhzDbZ0hCfstBvWlm143XxGxL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rBLrSmJTpBTHbop6czdG-6XXAixP09dy/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1Ro4v1l-zVc15l8_3EhyqdouqNhrar0Zs?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1AV1hkvyXxbsL_cT6Gi9RB6DQqGp6IXTA/view?usp=sharing</t>
+    <t>https://docs.google.com/spreadsheets/d/1aeaOziY3ldxEoaiD6KDxvDQxo8oO1uDf/edit?usp=sharing&amp;ouid=107946665751420093095&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JLB4iaY1ZckI3xoeEndOKClYL9mW1LWy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ulygl4roTmnDF7x0v42qyd9ZN5JLx-sD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>La celda que se encuentra en blanco es debido a que esta en proceso de captura en el Sistema Integral de Información estadística de la Dirección General de Universidades Tecnológicas y Politécnicas (SIIEDGUTyP) pues el cierre del mismo es para el 15 de octubre de 2021.</t>
   </si>
 </sst>
 </file>
@@ -209,13 +209,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -277,14 +275,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,24 +312,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="L8" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,18 +605,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" customWidth="1"/>
-    <col min="8" max="8" width="79" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.42578125" customWidth="1"/>
+    <col min="8" max="8" width="88.5703125" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="91.140625" customWidth="1"/>
+    <col min="10" max="10" width="81.42578125" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="15" max="15" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -627,38 +625,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -670,13 +668,13 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
@@ -717,13 +715,13 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
@@ -755,23 +753,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -820,95 +818,95 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:15" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2021</v>
       </c>
-      <c r="B8" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44453</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="11">
-        <v>44238</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="6">
+        <v>44480</v>
+      </c>
+      <c r="N8" s="6">
+        <v>44480</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44459</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="6">
+        <v>44480</v>
+      </c>
+      <c r="N9" s="6">
+        <v>44480</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="11">
-        <v>44386</v>
-      </c>
-      <c r="N8" s="11">
-        <v>44386</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="11">
-        <v>44287</v>
-      </c>
-      <c r="C9" s="11">
-        <v>44377</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="11">
-        <v>44372</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="11">
-        <v>44386</v>
-      </c>
-      <c r="N9" s="11">
-        <v>44386</v>
-      </c>
-      <c r="O9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -921,15 +919,15 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId1"/>
     <hyperlink ref="K8" r:id="rId2"/>
     <hyperlink ref="H9" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="J9" r:id="rId5"/>
-    <hyperlink ref="G9" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="K9" r:id="rId4"/>
+    <hyperlink ref="J8" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>45736</t>
   </si>
@@ -159,37 +159,22 @@
     <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020</t>
   </si>
   <si>
-    <t>.xls</t>
-  </si>
-  <si>
-    <t>https://dgutyp.sep.gob.mx/index.php?pagina=MecasuTP</t>
-  </si>
-  <si>
-    <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
-  </si>
-  <si>
-    <t>Modelo de Evaluación de la Calidad del Subsistema de Universidades Politécnicas</t>
-  </si>
-  <si>
-    <t>MECASUP mayo-agosto 2021</t>
-  </si>
-  <si>
-    <t>Estadística septiembre- diciembre 2021</t>
-  </si>
-  <si>
-    <t>https://www.gob.mx/sep/acciones-y-programas/estadistica-educativa-15782</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1aeaOziY3ldxEoaiD6KDxvDQxo8oO1uDf/edit?usp=sharing&amp;ouid=107946665751420093095&amp;rtpof=true&amp;sd=true</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1JLB4iaY1ZckI3xoeEndOKClYL9mW1LWy/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ulygl4roTmnDF7x0v42qyd9ZN5JLx-sD/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>La celda que se encuentra en blanco es debido a que esta en proceso de captura en el Sistema Integral de Información estadística de la Dirección General de Universidades Tecnológicas y Politécnicas (SIIEDGUTyP) pues el cierre del mismo es para el 15 de octubre de 2021.</t>
+    <t>Estadística 911</t>
+  </si>
+  <si>
+    <t>Estadístiva de Educación Superior</t>
+  </si>
+  <si>
+    <t>.PDF</t>
+  </si>
+  <si>
+    <t>http://sep.hidalgo.gob.mx/content/estadistica_basica/principal.html</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PiYBx4g4TSv_oA97sUKB-BRJW2EvA3IU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OBE1umuy_1yaT7mi1u3cTFjNsqyoIFDv/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -270,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -282,9 +267,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -298,9 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L8" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +590,7 @@
     <col min="7" max="7" width="83.42578125" customWidth="1"/>
     <col min="8" max="8" width="88.5703125" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="81.42578125" customWidth="1"/>
+    <col min="10" max="10" width="86.7109375" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -625,38 +604,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -753,23 +732,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -819,94 +798,49 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>2021</v>
       </c>
-      <c r="B8" s="6">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5">
+        <v>44491</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="6">
-        <v>44453</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="6">
-        <v>44480</v>
-      </c>
-      <c r="N8" s="6">
-        <v>44480</v>
+      <c r="M8" s="5">
+        <v>44571</v>
+      </c>
+      <c r="N8" s="5">
+        <v>44571</v>
       </c>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="6">
-        <v>44378</v>
-      </c>
-      <c r="C9" s="6">
-        <v>44469</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6">
-        <v>44459</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="6">
-        <v>44480</v>
-      </c>
-      <c r="N9" s="6">
-        <v>44480</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -921,13 +855,10 @@
   <hyperlinks>
     <hyperlink ref="H8" r:id="rId1"/>
     <hyperlink ref="K8" r:id="rId2"/>
-    <hyperlink ref="H9" r:id="rId3"/>
-    <hyperlink ref="K9" r:id="rId4"/>
-    <hyperlink ref="J8" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="J8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -156,25 +151,25 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
+    <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
+  </si>
+  <si>
+    <t>Estadística enero-abril 2022</t>
+  </si>
+  <si>
+    <t>https://sistemas.dgutyp.sep.gob.mx/sii/Downloads/UTUPSII.pdf</t>
+  </si>
+  <si>
     <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020</t>
   </si>
   <si>
-    <t>Estadística 911</t>
-  </si>
-  <si>
-    <t>Estadístiva de Educación Superior</t>
-  </si>
-  <si>
-    <t>.PDF</t>
-  </si>
-  <si>
-    <t>http://sep.hidalgo.gob.mx/content/estadistica_basica/principal.html</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1PiYBx4g4TSv_oA97sUKB-BRJW2EvA3IU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OBE1umuy_1yaT7mi1u3cTFjNsqyoIFDv/view?usp=sharing</t>
+    <t>.xls</t>
+  </si>
+  <si>
+    <t>https://www.gob.mx/sep/acciones-y-programas/estadistica-educativa-15782</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f30/REPORTES%20SISTEMA.zip</t>
   </si>
 </sst>
 </file>
@@ -227,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,23 +245,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -275,18 +273,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -565,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,18 +585,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.42578125" customWidth="1"/>
-    <col min="8" max="8" width="88.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1"/>
+    <col min="7" max="7" width="74.42578125" customWidth="1"/>
+    <col min="8" max="8" width="77.7109375" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="86.7109375" customWidth="1"/>
+    <col min="10" max="10" width="80.28515625" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -604,38 +605,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -732,23 +733,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -797,48 +798,48 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44470</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    <row r="8" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44607</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="5">
-        <v>44491</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="K8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="5">
-        <v>44571</v>
-      </c>
-      <c r="N8" s="5">
-        <v>44571</v>
+      <c r="M8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="N8" s="3">
+        <v>44659</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -853,12 +854,11 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
-    <hyperlink ref="K8" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId2"/>
+    <hyperlink ref="K8" r:id="rId3"/>
     <hyperlink ref="J8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11130" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -154,9 +154,6 @@
     <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
   </si>
   <si>
-    <t>Estadística enero-abril 2022</t>
-  </si>
-  <si>
     <t>https://sistemas.dgutyp.sep.gob.mx/sii/Downloads/UTUPSII.pdf</t>
   </si>
   <si>
@@ -169,7 +166,10 @@
     <t>https://www.gob.mx/sep/acciones-y-programas/estadistica-educativa-15782</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f30/REPORTES%20SISTEMA.zip</t>
+    <t>Estadística mayo-agosto 2022</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/30/REPORTES%20SISTEMA%20MAYO%20AGOSTO%202022.zip</t>
   </si>
 </sst>
 </file>
@@ -189,11 +189,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -287,12 +289,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -576,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,18 +583,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1"/>
-    <col min="7" max="7" width="74.42578125" customWidth="1"/>
-    <col min="8" max="8" width="77.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="67" customWidth="1"/>
+    <col min="8" max="8" width="82.28515625" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="80.28515625" customWidth="1"/>
+    <col min="10" max="10" width="74.85546875" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -621,7 +619,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -803,43 +801,43 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="3">
-        <v>44607</v>
+        <v>44727</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="O8" s="2"/>
     </row>

--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9299F6-DBC0-4EBC-A1B0-FD88E244F789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11130" windowHeight="3810"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>45736</t>
   </si>
@@ -148,34 +154,16 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
-  </si>
-  <si>
-    <t>https://sistemas.dgutyp.sep.gob.mx/sii/Downloads/UTUPSII.pdf</t>
-  </si>
-  <si>
-    <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020</t>
-  </si>
-  <si>
-    <t>.xls</t>
-  </si>
-  <si>
-    <t>https://www.gob.mx/sep/acciones-y-programas/estadistica-educativa-15782</t>
-  </si>
-  <si>
-    <t>Estadística mayo-agosto 2022</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/30/REPORTES%20SISTEMA%20MAYO%20AGOSTO%202022.zip</t>
+    <t>Departamento de Evaluación y Estadistícas (UPP)</t>
+  </si>
+  <si>
+    <t>En este periodo no se llevó a cabo el levantamiento de estadísticas generadas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -247,21 +235,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -289,8 +268,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -564,18 +550,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,18 +569,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="67" customWidth="1"/>
-    <col min="8" max="8" width="82.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="74.85546875" customWidth="1"/>
+    <col min="10" max="10" width="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="15" max="15" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -619,7 +605,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -630,11 +616,11 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -796,50 +782,36 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3">
-        <v>44727</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>44834</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O8" s="2"/>
+        <v>44844</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -851,12 +823,7 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="H8" r:id="rId2"/>
-    <hyperlink ref="K8" r:id="rId3"/>
-    <hyperlink ref="J8" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9299F6-DBC0-4EBC-A1B0-FD88E244F789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>45736</t>
   </si>
@@ -154,17 +148,71 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Departamento de Evaluación y Estadistícas (UPP)</t>
-  </si>
-  <si>
-    <t>En este periodo no se llevó a cabo el levantamiento de estadísticas generadas.</t>
+    <t>Departamento de Evaluación y Estadistica (UPP)</t>
+  </si>
+  <si>
+    <t>Estadística de Educación Superior</t>
+  </si>
+  <si>
+    <t>Estadística 911</t>
+  </si>
+  <si>
+    <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020#gsc.tab=0</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>http://sep.hidalgo.gob.mx/content/estadistica_basica/principal.html</t>
+  </si>
+  <si>
+    <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
+  </si>
+  <si>
+    <t>Estadística  septiembre-diciembre 2022</t>
+  </si>
+  <si>
+    <t>https://sistemas.dgutyp.sep.gob.mx/sii/Downloads/UTUPSII.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020</t>
+  </si>
+  <si>
+    <t>.xls</t>
+  </si>
+  <si>
+    <t>https://www.gob.mx/sep/acciones-y-programas/estadistica-educativa-15782</t>
+  </si>
+  <si>
+    <t>Modelo de Evaluación de la Calidad del Subsistema de Universidades Politécnicas</t>
+  </si>
+  <si>
+    <t>MECASUP 2021-2022</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/mecasup/mc/guia/2021-guia_mecasup.pdf</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/mecasup/</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/30/3.MECASUP/COLUMNA%20J.xlsx</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/30/2.ESTADISTICA_911/columna%20G.xlsx</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/30/2.ESTADISTICA_911/COLUMNA%20J.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/30/1.ESTADISTICA_BASICA/COLUMNA%20J.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -184,6 +232,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -238,12 +293,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -257,10 +315,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,15 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -306,39 +358,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,151 +469,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,18 +645,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.28515625" customWidth="1"/>
+    <col min="8" max="8" width="86" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77.85546875" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34" customWidth="1"/>
+    <col min="15" max="15" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -589,38 +665,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -717,23 +793,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -782,36 +858,140 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44847</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="N8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="O8" s="11" t="s">
+      <c r="M8" s="4">
+        <v>44936</v>
+      </c>
+      <c r="N8" s="4">
+        <v>44936</v>
+      </c>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="E9" s="4">
+        <v>44859</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="4">
+        <v>44936</v>
+      </c>
+      <c r="N9" s="4">
+        <v>44936</v>
+      </c>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44910</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="4">
+        <v>44936</v>
+      </c>
+      <c r="N10" s="4">
+        <v>44936</v>
+      </c>
+      <c r="O10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -823,7 +1003,20 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1" location="gsc.tab=0"/>
+    <hyperlink ref="K9" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4"/>
+    <hyperlink ref="K8" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="H10" r:id="rId7" location="gsc.tab=0"/>
+    <hyperlink ref="K10" r:id="rId8"/>
+    <hyperlink ref="J10" r:id="rId9"/>
+    <hyperlink ref="G9" r:id="rId10"/>
+    <hyperlink ref="J9" r:id="rId11"/>
+    <hyperlink ref="J8" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>45736</t>
   </si>
@@ -154,24 +154,12 @@
     <t>Estadística de Educación Superior</t>
   </si>
   <si>
-    <t>Estadística 911</t>
-  </si>
-  <si>
-    <t>https://www.dof.gob.mx/nota_detalle.php?codigo=5600454&amp;fecha=15/09/2020#gsc.tab=0</t>
-  </si>
-  <si>
     <t>.pdf</t>
   </si>
   <si>
-    <t>http://sep.hidalgo.gob.mx/content/estadistica_basica/principal.html</t>
-  </si>
-  <si>
     <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
   </si>
   <si>
-    <t>Estadística  septiembre-diciembre 2022</t>
-  </si>
-  <si>
     <t>https://sistemas.dgutyp.sep.gob.mx/sii/Downloads/UTUPSII.pdf</t>
   </si>
   <si>
@@ -181,31 +169,22 @@
     <t>.xls</t>
   </si>
   <si>
-    <t>https://www.gob.mx/sep/acciones-y-programas/estadistica-educativa-15782</t>
-  </si>
-  <si>
-    <t>Modelo de Evaluación de la Calidad del Subsistema de Universidades Politécnicas</t>
-  </si>
-  <si>
-    <t>MECASUP 2021-2022</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/mecasup/mc/guia/2021-guia_mecasup.pdf</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/mecasup/</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/30/3.MECASUP/COLUMNA%20J.xlsx</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/30/2.ESTADISTICA_911/columna%20G.xlsx</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/30/2.ESTADISTICA_911/COLUMNA%20J.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/30/1.ESTADISTICA_BASICA/COLUMNA%20J.zip</t>
+    <t>Estadística  enero-abril 2023</t>
+  </si>
+  <si>
+    <t>Estadística 912</t>
+  </si>
+  <si>
+    <t>https://www.f912bibliotecas.sep.gob.mx/2022/Documento/CUESTIONARIO%20BIBLIOTECAS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/bancodedatosestadisticos/</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/bancodedatosestadisticos/mc/2023/Estadistica%20Basica/enero-abril/Base%20de%20datos/</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/bancodedatosestadisticos/mc/2023/Estadistica%20912/912%20Oficializaci%c3%b3n%202022.PDF</t>
   </si>
 </sst>
 </file>
@@ -267,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,12 +269,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -324,11 +312,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -634,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,16 +644,16 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="93.140625" customWidth="1"/>
     <col min="8" max="8" width="86" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+    <col min="10" max="10" width="121" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -665,38 +662,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -793,23 +790,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -860,138 +857,93 @@
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="4">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4">
-        <v>44847</v>
+        <v>44973</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N8" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="4">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C9" s="4">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="4">
-        <v>44859</v>
+        <v>44974</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M9" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N9" s="4">
-        <v>44936</v>
-      </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="4">
-        <v>44910</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="4">
-        <v>44936</v>
-      </c>
-      <c r="N10" s="4">
-        <v>44936</v>
-      </c>
-      <c r="O10" s="5"/>
+        <v>45026</v>
+      </c>
+      <c r="O9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1004,18 +956,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" location="gsc.tab=0"/>
-    <hyperlink ref="K9" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="K8" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="H10" r:id="rId7" location="gsc.tab=0"/>
-    <hyperlink ref="K10" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="G9" r:id="rId10"/>
-    <hyperlink ref="J9" r:id="rId11"/>
-    <hyperlink ref="J8" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId2"/>
+    <hyperlink ref="H9" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="K9" r:id="rId5"/>
+    <hyperlink ref="J8" r:id="rId6"/>
+    <hyperlink ref="J9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f30UPPachuca.xlsx
+++ b/xlsx/a69_f30UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6ECEA8B-3703-4C70-9DF4-E16560D0D8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>45736</t>
   </si>
@@ -151,12 +157,6 @@
     <t>Departamento de Evaluación y Estadistica (UPP)</t>
   </si>
   <si>
-    <t>Estadística de Educación Superior</t>
-  </si>
-  <si>
-    <t>.pdf</t>
-  </si>
-  <si>
     <t>Estadística Básica de la Coordinación de Universidades Tecnológicas y Politécnicas</t>
   </si>
   <si>
@@ -169,28 +169,19 @@
     <t>.xls</t>
   </si>
   <si>
-    <t>Estadística  enero-abril 2023</t>
-  </si>
-  <si>
-    <t>Estadística 912</t>
-  </si>
-  <si>
-    <t>https://www.f912bibliotecas.sep.gob.mx/2022/Documento/CUESTIONARIO%20BIBLIOTECAS.pdf</t>
+    <t>Estadística  mayo-agosto 2023</t>
   </si>
   <si>
     <t>https://www.upp.edu.mx/bancodedatosestadisticos/</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/bancodedatosestadisticos/mc/2023/Estadistica%20Basica/enero-abril/Base%20de%20datos/</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/bancodedatosestadisticos/mc/2023/Estadistica%20912/912%20Oficializaci%c3%b3n%202022.PDF</t>
+    <t>https://www.upp.edu.mx/bancodedatosestadisticos/mc/2023/Estadistica%20Basica/mayo-agosto/base%20de%20datos/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,12 +261,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -283,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -309,10 +302,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,7 +310,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -387,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,9 +410,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,6 +462,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,16 +668,16 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="93.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.28515625" customWidth="1"/>
     <col min="8" max="8" width="86" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="121" customWidth="1"/>
+    <col min="10" max="10" width="90.42578125" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -662,38 +686,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -790,23 +814,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -860,90 +884,45 @@
         <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="4">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45091</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="4">
-        <v>44973</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="4">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="N8" s="4">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45016</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4">
-        <v>44974</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="4">
-        <v>45026</v>
-      </c>
-      <c r="N9" s="4">
-        <v>45026</v>
-      </c>
-      <c r="O9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -956,13 +935,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="H8" r:id="rId2"/>
-    <hyperlink ref="H9" r:id="rId3"/>
-    <hyperlink ref="K8" r:id="rId4"/>
-    <hyperlink ref="K9" r:id="rId5"/>
-    <hyperlink ref="J8" r:id="rId6"/>
-    <hyperlink ref="J9" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
